--- a/public/data/djagad2 (2).xlsx
+++ b/public/data/djagad2 (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NISA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11652" windowHeight="9252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>kavling</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>hasbi@gmail.com</t>
+  </si>
+  <si>
+    <t>kluster</t>
+  </si>
+  <si>
+    <t>Granada</t>
   </si>
 </sst>
 </file>
@@ -428,33 +434,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -478,18 +489,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -513,18 +527,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -550,8 +567,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
